--- a/Рекрутинг.xlsx
+++ b/Рекрутинг.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -351,6 +351,42 @@
   </si>
   <si>
     <t>Соискатель</t>
+  </si>
+  <si>
+    <t>ОАО "Звезда"</t>
+  </si>
+  <si>
+    <t>ОАО "Победа"</t>
+  </si>
+  <si>
+    <t>2024-05-22T16:25:53</t>
+  </si>
+  <si>
+    <t>2024-05-22T17:05:49</t>
+  </si>
+  <si>
+    <t>2024-05-19T15:58:18</t>
+  </si>
+  <si>
+    <t>2024-05-20T16:08:16</t>
+  </si>
+  <si>
+    <t>2024-05-20T12:24:32</t>
+  </si>
+  <si>
+    <t>2024-05-21T12:29:35</t>
+  </si>
+  <si>
+    <t>2024-05-21T12:33:08</t>
+  </si>
+  <si>
+    <t>2024-05-21T14:26:41</t>
+  </si>
+  <si>
+    <t>2024-05-22T14:32:06</t>
+  </si>
+  <si>
+    <t>2024-05-22T14:33:44</t>
   </si>
 </sst>
 </file>
@@ -690,7 +726,7 @@
     <col min="9" max="9" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,9 +755,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -729,8 +765,8 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>2002</v>
+      <c r="D2" t="n">
+        <v>2002.0</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -741,25 +777,25 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="H2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3">
-        <v>5000</v>
+      <c r="D3" t="n">
+        <v>5000.0</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -770,25 +806,25 @@
       <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
+      <c r="H3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4">
-        <v>45678</v>
+      <c r="D4" t="n">
+        <v>45678.0</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -799,16 +835,16 @@
       <c r="G4" t="s">
         <v>67</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -816,8 +852,8 @@
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5">
-        <v>2019</v>
+      <c r="D5" t="n">
+        <v>2019.0</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -828,11 +864,11 @@
       <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1005,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1037,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1069,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -1101,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1133,10 +1169,10 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1165,10 +1201,10 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1197,10 +1233,10 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -1261,10 +1297,10 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1293,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -1446,7 +1482,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
         <v>98</v>
